--- a/KB-25004 INV PLK CT DAP(1)_processed_text_rows.xlsx
+++ b/KB-25004 INV PLK CT DAP(1)_processed_text_rows.xlsx
@@ -2220,7 +2220,7 @@
     </row>
     <row r="11" ht="14.1" customFormat="1" customHeight="1" s="131"/>
     <row r="12" ht="24.95" customFormat="1" customHeight="1" s="131"/>
-    <row r="13" ht="24.95" customFormat="1" customHeight="1" s="131">
+    <row r="13" ht="14.1" customFormat="1" customHeight="1" s="131">
       <c r="A13" s="143" t="inlineStr">
         <is>
           <t>Authorized Signature For EXporter</t>
@@ -2254,14 +2254,194 @@
     </row>
     <row r="15" ht="14.1" customFormat="1" customHeight="1" s="131"/>
     <row r="16" ht="115.5" customHeight="1" s="122"/>
-    <row r="200" ht="115.5" customHeight="1" s="122"/>
+    <row r="17"/>
+    <row r="18"/>
+    <row r="19"/>
+    <row r="20"/>
+    <row r="21"/>
+    <row r="22"/>
+    <row r="23"/>
+    <row r="24"/>
+    <row r="25"/>
+    <row r="26"/>
+    <row r="27"/>
+    <row r="28"/>
+    <row r="29"/>
+    <row r="30"/>
+    <row r="31"/>
+    <row r="32"/>
+    <row r="33"/>
+    <row r="34"/>
+    <row r="35"/>
+    <row r="36"/>
+    <row r="37"/>
+    <row r="38"/>
+    <row r="39"/>
+    <row r="40"/>
+    <row r="41"/>
+    <row r="42"/>
+    <row r="43"/>
+    <row r="44"/>
+    <row r="45"/>
+    <row r="46"/>
+    <row r="47"/>
+    <row r="48"/>
+    <row r="49"/>
+    <row r="50"/>
+    <row r="51"/>
+    <row r="52"/>
+    <row r="53"/>
+    <row r="54"/>
+    <row r="55"/>
+    <row r="56"/>
+    <row r="57"/>
+    <row r="58"/>
+    <row r="59"/>
+    <row r="60"/>
+    <row r="61"/>
+    <row r="62"/>
+    <row r="63"/>
+    <row r="64"/>
+    <row r="65"/>
+    <row r="66"/>
+    <row r="67"/>
+    <row r="68"/>
+    <row r="69"/>
+    <row r="70"/>
+    <row r="71"/>
+    <row r="72"/>
+    <row r="73"/>
+    <row r="74"/>
+    <row r="75"/>
+    <row r="76"/>
+    <row r="77"/>
+    <row r="78"/>
+    <row r="79"/>
+    <row r="80"/>
+    <row r="81"/>
+    <row r="82"/>
+    <row r="83"/>
+    <row r="84"/>
+    <row r="85"/>
+    <row r="86"/>
+    <row r="87"/>
+    <row r="88"/>
+    <row r="89"/>
+    <row r="90"/>
+    <row r="91"/>
+    <row r="92"/>
+    <row r="93"/>
+    <row r="94"/>
+    <row r="95"/>
+    <row r="96"/>
+    <row r="97"/>
+    <row r="98"/>
+    <row r="99"/>
+    <row r="100"/>
+    <row r="101"/>
+    <row r="102"/>
+    <row r="103"/>
+    <row r="104"/>
+    <row r="105"/>
+    <row r="106"/>
+    <row r="107"/>
+    <row r="108"/>
+    <row r="109"/>
+    <row r="110"/>
+    <row r="111"/>
+    <row r="112"/>
+    <row r="113"/>
+    <row r="114"/>
+    <row r="115"/>
+    <row r="116"/>
+    <row r="117"/>
+    <row r="118"/>
+    <row r="119"/>
+    <row r="120"/>
+    <row r="121"/>
+    <row r="122"/>
+    <row r="123"/>
+    <row r="124"/>
+    <row r="125"/>
+    <row r="126"/>
+    <row r="127"/>
+    <row r="128"/>
+    <row r="129"/>
+    <row r="130"/>
+    <row r="131"/>
+    <row r="132"/>
+    <row r="133"/>
+    <row r="134"/>
+    <row r="135"/>
+    <row r="136"/>
+    <row r="137"/>
+    <row r="138"/>
+    <row r="139"/>
+    <row r="140"/>
+    <row r="141"/>
+    <row r="142"/>
+    <row r="143"/>
+    <row r="144"/>
+    <row r="145"/>
+    <row r="146"/>
+    <row r="147"/>
+    <row r="148"/>
+    <row r="149"/>
+    <row r="150"/>
+    <row r="151"/>
+    <row r="152"/>
+    <row r="153"/>
+    <row r="154"/>
+    <row r="155"/>
+    <row r="156"/>
+    <row r="157"/>
+    <row r="158"/>
+    <row r="159"/>
+    <row r="160"/>
+    <row r="161"/>
+    <row r="162"/>
+    <row r="163"/>
+    <row r="164"/>
+    <row r="165"/>
+    <row r="166"/>
+    <row r="167"/>
+    <row r="168"/>
+    <row r="169"/>
+    <row r="170"/>
+    <row r="171"/>
+    <row r="172"/>
+    <row r="173"/>
+    <row r="174"/>
+    <row r="175"/>
+    <row r="176"/>
+    <row r="177"/>
+    <row r="178"/>
+    <row r="179"/>
+    <row r="180"/>
+    <row r="181"/>
+    <row r="182"/>
+    <row r="183"/>
+    <row r="184"/>
+    <row r="185"/>
+    <row r="186"/>
+    <row r="187"/>
+    <row r="188"/>
+    <row r="189"/>
+    <row r="190"/>
+    <row r="191"/>
+    <row r="192"/>
+    <row r="193"/>
+    <row r="194"/>
+    <row r="195"/>
+    <row r="196"/>
+    <row r="197"/>
+    <row r="198"/>
+    <row r="199"/>
+    <row r="200" ht="23.1" customHeight="1" s="122"/>
   </sheetData>
-  <mergeCells count="38">
-    <mergeCell ref="B14:G14"/>
+  <mergeCells count="32">
     <mergeCell ref="A15:E15"/>
     <mergeCell ref="F16:J16"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="A12:F12"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="F3:J3"/>
@@ -2274,23 +2454,20 @@
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="G2:J2"/>
     <mergeCell ref="D8:F8"/>
+    <mergeCell ref="A200:F200"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A10:C10"/>
-    <mergeCell ref="I12:J12"/>
     <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A13:F13"/>
     <mergeCell ref="G8:J8"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="G7:J7"/>
-    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="F13:J13"/>
     <mergeCell ref="G10:J10"/>
     <mergeCell ref="D10:F10"/>
     <mergeCell ref="G6:J6"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A200:E200"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A6:C6"/>
-    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="A13:E13"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="G5:J5"/>
@@ -2790,24 +2967,21 @@
     <row r="199"/>
     <row r="200"/>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="16">
     <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="A28:G28"/>
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="A27:C27"/>
-    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="A30:C30"/>
     <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A34:G34"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="B26:C26"/>
     <mergeCell ref="A33:G33"/>
     <mergeCell ref="A5:G5"/>
   </mergeCells>
@@ -3330,21 +3504,16 @@
     <row r="200" ht="42" customHeight="1" s="122"/>
   </sheetData>
   <autoFilter ref="A22:I27"/>
-  <mergeCells count="28">
+  <mergeCells count="19">
     <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D21:D22"/>
     <mergeCell ref="J37:K37"/>
     <mergeCell ref="L28:L29"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="H21:H22"/>
     <mergeCell ref="A26:C26"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="I21:I22"/>
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A21:A22"/>
     <mergeCell ref="A27:K27"/>
     <mergeCell ref="A31:C31"/>
     <mergeCell ref="A33:K33"/>
@@ -3353,12 +3522,8 @@
     <mergeCell ref="A200:B200"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="G21:G22"/>
     <mergeCell ref="A28:K28"/>
     <mergeCell ref="A6:I6"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="E21:F21"/>
   </mergeCells>
   <conditionalFormatting sqref="N29:N41">
     <cfRule type="duplicateValues" priority="1" stopIfTrue="1"/>

--- a/KB-25004 INV PLK CT DAP(1)_processed_text_rows.xlsx
+++ b/KB-25004 INV PLK CT DAP(1)_processed_text_rows.xlsx
@@ -2240,7 +2240,7 @@
       <c r="I13" s="133" t="n"/>
       <c r="J13" s="134" t="n"/>
     </row>
-    <row r="14" ht="23.1" customHeight="1" s="122">
+    <row r="14" ht="115.5" customHeight="1" s="122">
       <c r="A14" s="145" t="n"/>
       <c r="B14" s="146" t="n"/>
       <c r="C14" s="146" t="n"/>
@@ -2439,7 +2439,7 @@
     <row r="199"/>
     <row r="200" ht="23.1" customHeight="1" s="122"/>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="34">
     <mergeCell ref="A15:E15"/>
     <mergeCell ref="F16:J16"/>
     <mergeCell ref="G1:J1"/>
@@ -2461,11 +2461,13 @@
     <mergeCell ref="G8:J8"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="G7:J7"/>
+    <mergeCell ref="A14:E14"/>
     <mergeCell ref="F13:J13"/>
     <mergeCell ref="G10:J10"/>
     <mergeCell ref="D10:F10"/>
     <mergeCell ref="G6:J6"/>
     <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F14:J14"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="A7:C7"/>
